--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3602.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3602.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.478635834850296</v>
+        <v>1.365378499031067</v>
       </c>
       <c r="B1">
-        <v>3.084265853827016</v>
+        <v>2.997919797897339</v>
       </c>
       <c r="C1">
-        <v>4.164280411177449</v>
+        <v>4.882116317749023</v>
       </c>
       <c r="D1">
-        <v>1.465049178807601</v>
+        <v>1.743759393692017</v>
       </c>
       <c r="E1">
-        <v>0.81276537917629</v>
+        <v>1.103307366371155</v>
       </c>
     </row>
   </sheetData>
